--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C4D3C-E0F5-482A-8DCD-6D4BB25A2ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86487BBA-FDF4-4954-AFBA-16EBB14F8BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48000" yWindow="-12270" windowWidth="19200" windowHeight="21000" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -22353,7 +22354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86487BBA-FDF4-4954-AFBA-16EBB14F8BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D0FC1D-6534-4ABF-BA84-A03E9722619D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D0FC1D-6534-4ABF-BA84-A03E9722619D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627853B-B021-4EED-85B3-889B65A20CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0627853B-B021-4EED-85B3-889B65A20CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DD47C3-4BB5-445D-9743-ABE3CE74D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -22354,8 +22354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DD47C3-4BB5-445D-9743-ABE3CE74D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C1EFD-EC29-46C1-8F24-88E440905F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7451,8 +7451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -22354,8 +22353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2AC-228D-47B8-8C84-211710BC16D7}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C1EFD-EC29-46C1-8F24-88E440905F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711D9C5-6D9D-47E4-81CF-AD796EEEC935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711D9C5-6D9D-47E4-81CF-AD796EEEC935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EFC41F-DBEA-40CA-B768-990476EE7834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EFC41F-DBEA-40CA-B768-990476EE7834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F29FEE-27A3-48E0-836D-8B7930E54B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F29FEE-27A3-48E0-836D-8B7930E54B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C89C5-B467-4EFE-90AD-1C0CEBD45D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188C89C5-B467-4EFE-90AD-1C0CEBD45D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD77AA7-5374-4609-ADE3-C3804F370C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD77AA7-5374-4609-ADE3-C3804F370C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B04E1-CE05-4F16-89FD-85389EC088AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B04E1-CE05-4F16-89FD-85389EC088AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BDD7BC-AD6F-45B6-AFEA-78EDBE8E763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BDD7BC-AD6F-45B6-AFEA-78EDBE8E763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8E636-2C18-4DC4-A739-AD312C555D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8E636-2C18-4DC4-A739-AD312C555D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA3FA3-4694-45AA-A2B9-CDE37D75C3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="13320" windowHeight="7704" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,11 +7465,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/case30/case30_2040.xlsx
+++ b/data/CS3/case30/case30_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\case30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA3FA3-4694-45AA-A2B9-CDE37D75C3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589BC67D-442D-425E-A4AC-8740601D4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="13320" windowHeight="7704" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-11310" windowWidth="16650" windowHeight="9630" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7465,10 +7465,11 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
